--- a/public/excel/Program.xlsx
+++ b/public/excel/Program.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\redaxa\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivansandoya/Documents/works/customers/redaxa/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4365" windowHeight="8985"/>
+    <workbookView xWindow="2900" yWindow="1680" windowWidth="17020" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -35,22 +35,88 @@
     <t>program_type_id</t>
   </si>
   <si>
-    <t>Program 10</t>
-  </si>
-  <si>
-    <t>Program 11</t>
-  </si>
-  <si>
-    <t>Program 12</t>
-  </si>
-  <si>
-    <t>Program 13</t>
+    <t>Alta Dirección de Empresas</t>
+  </si>
+  <si>
+    <t>Diplomado en Logística del Transporte Internacional de Mercancías</t>
+  </si>
+  <si>
+    <t>Diplomado en Tecnología y Negocios</t>
+  </si>
+  <si>
+    <t>Diplomado Superior en Gestión de Comercio Electrónico</t>
+  </si>
+  <si>
+    <t>Especialidad Banca y Finanzas</t>
+  </si>
+  <si>
+    <t>Especialidad en Gerencia de Servicios de Salud</t>
+  </si>
+  <si>
+    <t>Especialidad en Marketing</t>
+  </si>
+  <si>
+    <t>Especialidad RR.HH.</t>
+  </si>
+  <si>
+    <t>Finanzas</t>
+  </si>
+  <si>
+    <t>Gestión de Proyectos</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en Administración de Empresas con Enfoque en Comercio Internacional</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en Administración de Empresas Especialidad Marketing</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en el Sector Eléctrico</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en Gestión de Empresas y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en Gestión Financiera</t>
+  </si>
+  <si>
+    <t>Maestría Ejecutiva en Liderazgo</t>
+  </si>
+  <si>
+    <t>Maestría en Administración de Sistemas de Calidad</t>
+  </si>
+  <si>
+    <t>Maestría en Administración Pública con Gestión en Liderazgo</t>
+  </si>
+  <si>
+    <t>Maestría en Calidad</t>
+  </si>
+  <si>
+    <t>Maestría en Gestión Estratégica e Informática</t>
+  </si>
+  <si>
+    <t>Maestría en Tributación (METRI)</t>
+  </si>
+  <si>
+    <t>MBA Manta</t>
+  </si>
+  <si>
+    <t>MBA Tulane</t>
+  </si>
+  <si>
+    <t>MBA UQAM</t>
+  </si>
+  <si>
+    <t>Proyectos UQAM</t>
+  </si>
+  <si>
+    <t>Control de Calidad, Coaching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,20 +427,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,48 +451,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
